--- a/도서정보/도서정보-테이블명세(2021-06-01).xlsx
+++ b/도서정보/도서정보-테이블명세(2021-06-01).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16320" windowHeight="8100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16320" windowHeight="8100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="도서정보테이블_oracle" sheetId="9" r:id="rId1"/>
@@ -1097,7 +1097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -2185,8 +2185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L21"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3227,12 +3227,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4273,12 +4273,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
